--- a/biology/Botanique/Lathyrus_angulatus/Lathyrus_angulatus.xlsx
+++ b/biology/Botanique/Lathyrus_angulatus/Lathyrus_angulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gesse anguleuse (Lathyrus angulatus) est une plante à fleurs de la famille des fabacées[1]. Elle est originaire de la région méditerranéenne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gesse anguleuse (Lathyrus angulatus) est une plante à fleurs de la famille des fabacées. Elle est originaire de la région méditerranéenne.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa tige caractéristique fortement anguleuse porte des feuilles composées comportant des folioles très étroites opposées deux par deux. Les feuilles pennées ont un pétiole qui ne dépasse pas 40 mm. Le fourreau, plus large, qui mesure de 15 à 30 mm, est poilu sur le bord, sans nervures proéminentes.
 La plante fleurit au printemps. Les fleurs sont de couleur bleu-violet, mais peuvent être aussi rouge-violacé.
-Quand les fleurs sont rouge violacé, ce végétal peut être confondu avec la gesse à graines sphériques dont les pédoncules floraux sont beaucoup plus courts[2].
+Quand les fleurs sont rouge violacé, ce végétal peut être confondu avec la gesse à graines sphériques dont les pédoncules floraux sont beaucoup plus courts.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve au Portugal, tout autour de la Méditerranée occidentale jusqu'à la Grèce centrale et en Crète, au nord-ouest de l'Afrique, dans des habitats sablonneux et rocheux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve au Portugal, tout autour de la Méditerranée occidentale jusqu'à la Grèce centrale et en Crète, au nord-ouest de l'Afrique, dans des habitats sablonneux et rocheux.
 </t>
         </is>
       </c>
@@ -575,14 +591,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lathyrus angulatus a été décrite par Linné dans sa publication Species Plantarum 2: 731. 1753[4].
-Cytologíe
-Nombre de chromosomes de Lathyrus angulatus (Fam. Leguminosae) et taxons spécifiques : 2n=14[5]  (? à compléter)
-Étymologie
-Lathyrus : nom générique dérivé du grec que se rapporte à l'ancien nom du "pois"[6].
-angulatus : épithète latin qui signifie « angulaire »[7]. Les angles importants que font les tiges des feuilles avec la tige principale qui porte les fleurs, puis les gousses de pois, permettent à la plante de trouver plus facilement un tuteur pour s'élever grâce aux vrilles qui les terminent. Ce qui, finalement, facilitera la dispersion des graines.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lathyrus angulatus a été décrite par Linné dans sa publication Species Plantarum 2: 731. 1753.
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +621,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cytologíe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nombre de chromosomes de Lathyrus angulatus (Fam. Leguminosae) et taxons spécifiques : 2n=14  (? à compléter)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lathyrus_angulatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lathyrus_angulatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lathyrus : nom générique dérivé du grec que se rapporte à l'ancien nom du "pois".
+angulatus : épithète latin qui signifie « angulaire ». Les angles importants que font les tiges des feuilles avec la tige principale qui porte les fleurs, puis les gousses de pois, permettent à la plante de trouver plus facilement un tuteur pour s'élever grâce aux vrilles qui les terminent. Ce qui, finalement, facilitera la dispersion des graines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lathyrus_angulatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lathyrus_angulatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Noms usuels[8] dans quelques pays :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Noms usuels dans quelques pays :
 Allemagne: Eckige Platterbse.
 Angleterre : Angled pea, pois 'anguleux.
 Espagne: Pluma de ángel, plume d'ange, ou Sabillones borriqueros, gesse des ânes. 
